--- a/biology/Médecine/Dent_permanente/Dent_permanente.xlsx
+++ b/biology/Médecine/Dent_permanente/Dent_permanente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dents permanentes ou dents définitives sont les dents qui ne se renouvellent plus.
 Chez la plupart des mammifères, ces dents sont issues d'une seconde pousse remplaçant les dents déciduales.
@@ -514,13 +526,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Humain
-La denture humaine possèdent 32 dents permanentes. Les 8 incisives, les 4 canines et les 8 prémolaires remplace les 20 dents déciduales, les prémolaires remplaçant les 4 molaires déciduales.
+          <t>Humain</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La denture humaine possèdent 32 dents permanentes. Les 8 incisives, les 4 canines et les 8 prémolaires remplace les 20 dents déciduales, les prémolaires remplaçant les 4 molaires déciduales.
 Les 12 molaires permanentes poussent comme dent permanentes dés la première pousse.
-Chronologie
-La première dent définitive fait son éruption vers 5-6 ans : c'est la première molaire ("dent de 6 ans"). La dernière vers 12-13 ans ; c'est généralement une prémolaire sans compter les dents de sagesse inconstantes pouvant apparaître jusqu'à 25 ans.
-Cétacés
-Chez les cétacés odontocètes, ces dents ne se développent pas, ils gardent leurs dents de lait toute leur vie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dent_permanente</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent_permanente</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Types de dent permanentes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Humain</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première dent définitive fait son éruption vers 5-6 ans : c'est la première molaire ("dent de 6 ans"). La dernière vers 12-13 ans ; c'est généralement une prémolaire sans compter les dents de sagesse inconstantes pouvant apparaître jusqu'à 25 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dent_permanente</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent_permanente</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Types de dent permanentes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cétacés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les cétacés odontocètes, ces dents ne se développent pas, ils gardent leurs dents de lait toute leur vie.
 </t>
         </is>
       </c>
